--- a/Bill Of Materials/BOM.xlsx
+++ b/Bill Of Materials/BOM.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="82">
   <si>
     <t>Item:</t>
   </si>
@@ -251,16 +251,25 @@
     <t>Total</t>
   </si>
   <si>
-    <t>3D Printed Case (8 hours est, 100 grams PLA)</t>
-  </si>
-  <si>
     <t xml:space="preserve">unknown </t>
   </si>
   <si>
-    <t>Priced Via Shape Ways = $67. When I print at home in PLA I estimate cost is about 7$</t>
-  </si>
-  <si>
     <t>Do you own a 3D printer? I have printed many cases in PLA for cheap.</t>
+  </si>
+  <si>
+    <t>M3 screws 0.5X16 mm</t>
+  </si>
+  <si>
+    <t>Brighton-Best</t>
+  </si>
+  <si>
+    <t>No Link, available at any good bolt supply store</t>
+  </si>
+  <si>
+    <t>3D Printed Case (10 hours est. 100 grams PLA)</t>
+  </si>
+  <si>
+    <t>Priced Via Shape Ways = $67. When I print at home in PLA I estimate cost is about 10$</t>
   </si>
 </sst>
 </file>
@@ -422,6 +431,11 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -429,11 +443,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -718,8 +727,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E3:L40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E22" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -740,16 +749,16 @@
       </c>
     </row>
     <row r="5" spans="5:12" ht="46.5" x14ac:dyDescent="0.25">
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="15"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="18"/>
     </row>
     <row r="6" spans="5:12" ht="23.25" x14ac:dyDescent="0.25">
       <c r="E6" s="11" t="s">
@@ -1237,38 +1246,48 @@
     </row>
     <row r="24" spans="5:12" ht="45" x14ac:dyDescent="0.25">
       <c r="E24" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="F24" s="7" t="s">
-        <v>76</v>
-      </c>
       <c r="G24" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="H24" s="18">
+        <v>81</v>
+      </c>
+      <c r="H24" s="15">
         <v>67</v>
       </c>
       <c r="I24" s="7">
         <v>1</v>
       </c>
-      <c r="J24" s="18">
+      <c r="J24" s="15">
         <f t="shared" si="0"/>
         <v>67</v>
       </c>
       <c r="K24" s="9"/>
       <c r="L24" s="9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="25" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E25" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F25" s="3" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="25" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="3"/>
+      <c r="G25" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="H25" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="I25" s="3">
+        <v>4</v>
+      </c>
       <c r="J25" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="K25" s="5"/>
       <c r="L25" s="3"/>
@@ -1391,22 +1410,22 @@
       <c r="L34" s="3"/>
     </row>
     <row r="35" spans="5:12" ht="92.25" x14ac:dyDescent="1.35">
-      <c r="E35" s="16" t="s">
+      <c r="E35" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="F35" s="16"/>
-      <c r="G35" s="16"/>
-      <c r="H35" s="17"/>
-      <c r="I35" s="16">
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="13">
         <f>SUM(I7:I34)</f>
-        <v>23</v>
-      </c>
-      <c r="J35" s="17">
+        <v>27</v>
+      </c>
+      <c r="J35" s="14">
         <f>SUM(J7:J34)</f>
-        <v>229.31999999999996</v>
-      </c>
-      <c r="K35" s="16"/>
-      <c r="L35" s="16"/>
+        <v>230.11999999999998</v>
+      </c>
+      <c r="K35" s="13"/>
+      <c r="L35" s="13"/>
     </row>
     <row r="36" spans="5:12" x14ac:dyDescent="0.25">
       <c r="H36" s="1"/>
